--- a/PC 3.0.xlsx
+++ b/PC 3.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\Estudo\Programacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69014036-A4F1-44AD-A7DF-839857F5EE9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3544E385-1D50-4DFB-9D9F-65786B08DA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="857" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Placa de video" sheetId="1" r:id="rId1"/>
@@ -27,23 +27,17 @@
     <sheet name="Resumo" sheetId="10" r:id="rId12"/>
     <sheet name="Comprado" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="179">
   <si>
     <t>Marca</t>
   </si>
@@ -516,10 +510,70 @@
     <t>https://www.mercadolivre.com.br/disco-solido-interno-sandisk-ssd-plus-sdssda-120g-g27-120gb/p/MLB8902870?source=search#searchVariation=MLB8902870&amp;position=1&amp;type=product&amp;tracking_id=03eff48f-5917-42a7-8617-05139ae2e4d1</t>
   </si>
   <si>
-    <t>SanDisk</t>
-  </si>
-  <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/gabinete-gamer-redragon-wheeljack-preto-gc-606bk?gclid=EAIaIQobChMI7a-l1fj96gIVSICRCh3ZyAazEAQYASABEgJwW_D_BwE</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>https://www.terabyteshop.com.br/produto/10905/placa-de-video-galax-geforce-gtx-1660-6gb-1-click-oc-60srh7dsy91c-gddr5-pci-exp?p=32500</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/101268/placa-de-video-galax-nvidia-geforce-gtx-1660-1-click-oc-6gb-gddr5-60srh7dsy91c</t>
+  </si>
+  <si>
+    <t>https://www.zoom.com.br/placa-de-video/placa-de-video-nvidia-geforce-gtx-1660-6-gb-gddr5-192-bits-galax-60srh7dsy91c</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/81212/placa-de-v-deo-evga-nvidia-geforce-gtx-1070-gaming-8gb-gddr5-08g-p4-5171-kr</t>
+  </si>
+  <si>
+    <t>https://www.mercadolivre.com.br/disco-solido-interno-kingston-sa400s37120g-120gb/p/MLB6366629?source=search#searchVariation=MLB6366629&amp;position=1&amp;type=product&amp;tracking_id=75a01c3c-0500-430a-96fa-0630941abdbb</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/hardware/placa-de-video-evga-geforce-gtx-1660-6gb-black-192-bit-06g-p4-1160-kr</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/100930/placa-de-video-evga-nvidia-geforce-gtx-1660-xc-ultra-gaming-6gb-gddr5-06g-p4-1167-kr</t>
+  </si>
+  <si>
+    <t>https://www.terabyteshop.com.br/produto/10672/placa-de-video-evga-geforce-gtx-1660-ti-xc-ultra-gaming-6gb-06g-p4-1266-kb-gddr6-pci-exp</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/hardware/placa-de-video-asus-geforce-gtx-1660-6gb-gddr5-phoenix-oc-192-bit-ph-gtx1660-o6g</t>
+  </si>
+  <si>
+    <t>https://www.zoom.com.br/placa-de-video/placa-de-video-nvidia-geforce-gtx-1660-6-gb-gddr5-192-bits-asus-ph-gtx1660-o6g</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/gabinete-gamer-redragon-wheeljack-branco-gc-606wh?gclid=CjwKCAjw97P5BRBQEiwAGflV6TKhPhoK-J0hwHRNcp1cqAyFIUeD-Y5uNSyb_-tHjeRaW1Tw_FbthBoCA5MQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.terabyteshop.com.br/produto/10953/gabinete-redragon-wheel-jack-vidro-temperado-gc-606b-atx-preto-sfonte</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/fonte-evga-600w-80-plus-white-pfc-ativo-100-w1-0600-k0?gclid=CjwKCAjw97P5BRBQEiwAGflV6Q6GuRBJKpth3tTLljvaaUWAWst8R0ezeeFBbV7aeZ_Krs7Jy7DifRoCF6gQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.terabyteshop.com.br/produto/5854/fonte-evga-600w-100-w1-0600-k1-80-plus-pfc-ativo</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/cooler-para-processador-hyper-tx3-evo-cooler-master-rr-tx3e-28pk-r1-box?gclid=CjwKCAjw97P5BRBQEiwAGflV6SFCpgmjJNmjlq3nRXV1BwMOjthEup0iMUn1mc1jtSVKG1Eyl7BtYhoCxUwQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/35108/cooler-para-processador-coolermaster-hyper-tx3-evo-rr-tx3e-28pk-r1?gclid=CjwKCAjw97P5BRBQEiwAGflV6YO6wv9nXxLB6SSTeOE195IO3G2j2HZxjJEn-2HqGbSyL4y0Zu-zDhoCW4QQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.terabyteshop.com.br/produto/12274/gabinete-gamer-t-dagger-cube-mid-tower-vidro-temperado-white-s-fonte-t-tgc305w</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/108089/gabinete-gamer-t-dagger-cube-white-mid-tower-lateral-em-vidro-branco-t-tgc305w</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/gabinete-gamer-t-dagger-cube-preto-lateral-vidro-t-tgc305b?gclid=CjwKCAjw97P5BRBQEiwAGflV6XS5ws6ZDSNu1wWP3U9Ks1hImczFrMNHSFSINdrqSphAX68UV4ANLRoC4e4QAvD_BwE</t>
   </si>
 </sst>
 </file>
@@ -568,7 +622,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,6 +632,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,31 +662,25 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -930,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,16 +1007,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1130,6 +1190,51 @@
       </c>
       <c r="J8" s="2" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1142,6 +1247,15 @@
     <hyperlink ref="J6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="J7" r:id="rId4" xr:uid="{B98B531F-1AB6-4E6D-BCD3-4F9A94E55AEA}"/>
     <hyperlink ref="J8" r:id="rId5" xr:uid="{53D79CB2-A594-4EB0-8860-C7D96AD0517E}"/>
+    <hyperlink ref="J10" r:id="rId6" xr:uid="{83F9200B-2511-4E39-8A7E-7C61C00E3437}"/>
+    <hyperlink ref="J11" r:id="rId7" xr:uid="{8736281E-9912-447D-821A-391BF5508418}"/>
+    <hyperlink ref="J12" r:id="rId8" xr:uid="{8BCEC2C9-0163-4401-AB0E-0FE9D237BB1D}"/>
+    <hyperlink ref="J13" r:id="rId9" xr:uid="{CD04AB34-0CF0-461D-BDEF-50E7BFA1BF38}"/>
+    <hyperlink ref="J14" r:id="rId10" xr:uid="{7C6DF25A-A08A-49AB-94C0-A78E80DF2B6F}"/>
+    <hyperlink ref="J15" r:id="rId11" xr:uid="{2FF6C679-3C3E-4DB3-9C88-5C5A5F8F2D62}"/>
+    <hyperlink ref="J16" r:id="rId12" xr:uid="{FC904475-EAB9-4F0D-ABF6-5F67A469C69F}"/>
+    <hyperlink ref="J17" r:id="rId13" xr:uid="{A2FF4253-B94C-4D05-ADB7-E7F739D2B136}"/>
+    <hyperlink ref="J18" r:id="rId14" xr:uid="{51A1A8ED-494F-4B26-988F-FC1860AEC08E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1164,16 +1278,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1383,15 +1497,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1558,26 +1672,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -2022,12 +2136,12 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="4">
         <f>SUM(F4:F16)</f>
         <v>6122</v>
@@ -2194,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89D7B68-677F-4657-A79C-75FC01C0E5D7}">
-  <dimension ref="A3:M17"/>
+  <dimension ref="A3:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,6 +2364,9 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="B4" t="s">
         <v>76</v>
       </c>
@@ -2286,11 +2403,11 @@
         <f t="shared" ref="L4:L12" si="1">I4-G4</f>
         <v>-1550</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>158</v>
+      <c r="A5" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -2332,13 +2449,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>158</v>
+      <c r="A6" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -2380,13 +2497,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>158</v>
+      <c r="A7" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -2428,13 +2545,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>158</v>
+      <c r="A8" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -2444,7 +2561,7 @@
       </c>
       <c r="D8" t="str">
         <f>INDEX(SSD!$B$4:$S$74,MATCH(Comprado!$C$8,SSD!$B$4:$B$42,0),MATCH(Comprado!D3,SSD!$B$3:$S$3,0))</f>
-        <v>SanDisk</v>
+        <v>Kingston</v>
       </c>
       <c r="E8" t="str">
         <f>INDEX(SSD!$B$4:$S$74,MATCH(Comprado!$C$8,SSD!$B$4:$B$42,0),MATCH(Comprado!E3,SSD!$B$3:$S$3,0))</f>
@@ -2452,35 +2569,37 @@
       </c>
       <c r="F8" s="3">
         <f>INDEX(SSD!$B$4:$S$74,MATCH(Comprado!$C$8,SSD!$B$4:$B$42,0),MATCH(Comprado!F3,SSD!$B$3:$S$3,0))</f>
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="G8" s="3">
         <f>INDEX(SSD!$B$4:$S$74,MATCH(Comprado!$C$8,SSD!$B$4:$B$42,0),MATCH(Comprado!G3,SSD!$B$3:$S$3,0))</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H8" s="3">
         <f>INDEX(SSD!$B$4:$S$74,MATCH(Comprado!$C$8,SSD!$B$4:$B$42,0),MATCH(Comprado!H3,SSD!$B$3:$S$3,0))</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I8" s="3">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="0"/>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>156</v>
+      <c r="M8" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="B9" t="s">
         <v>80</v>
       </c>
@@ -2517,9 +2636,12 @@
         <f t="shared" si="1"/>
         <v>-440</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="B10" t="s">
         <v>81</v>
       </c>
@@ -2556,9 +2678,12 @@
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="B11" t="s">
         <v>82</v>
       </c>
@@ -2595,9 +2720,12 @@
         <f t="shared" si="1"/>
         <v>-350</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="B12" t="s">
         <v>82</v>
       </c>
@@ -2634,11 +2762,11 @@
         <f t="shared" si="1"/>
         <v>-700</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>158</v>
+      <c r="A13" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B13" t="s">
         <v>104</v>
@@ -2680,13 +2808,13 @@
         <f>I13-G13</f>
         <v>-101</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>158</v>
+      <c r="A14" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
@@ -2728,11 +2856,14 @@
         <f t="shared" ref="L14:L16" si="3">I14-G14</f>
         <v>-70</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="B15" t="s">
         <v>83</v>
       </c>
@@ -2771,6 +2902,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="B16" t="s">
         <v>141</v>
       </c>
@@ -2809,27 +2943,27 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="4">
         <f t="shared" ref="F17:L17" si="4">SUM(F4:F15)</f>
-        <v>6036</v>
+        <v>5996</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="4"/>
-        <v>6749</v>
+        <v>6751</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="4"/>
-        <v>6862</v>
+        <v>6864</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="4"/>
-        <v>3068</v>
+        <v>3070</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="4"/>
@@ -2837,11 +2971,17 @@
       </c>
       <c r="K17" s="4">
         <f t="shared" si="4"/>
-        <v>3121.7700000000004</v>
+        <v>3123.7700000000004</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="4"/>
         <v>-3681</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="4">
+        <f>3121.77+550+1500+300</f>
+        <v>5471.77</v>
       </c>
     </row>
   </sheetData>
@@ -2872,16 +3012,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -3077,10 +3217,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A86C830-7CAC-44B7-BF92-9D6ACA924EAA}">
-  <dimension ref="B2:I4"/>
+  <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3094,15 +3234,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -3150,6 +3290,16 @@
         <v>142</v>
       </c>
       <c r="I4" s="2"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3157,6 +3307,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{0D852801-EE30-4B07-ADAA-D63CEEE2B28A}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{FC6000FF-2374-473E-9FF8-04B210E7E448}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{8DEE7219-5EAA-4CF7-B26D-FDFBA42D735B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3176,15 +3328,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -3375,16 +3527,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -3641,7 +3793,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3655,15 +3807,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -3826,7 +3978,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
@@ -3835,13 +3987,13 @@
         <v>144</v>
       </c>
       <c r="F9" s="3">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="G9" s="3">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H9" s="3">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>156</v>
@@ -3880,16 +4032,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4023,10 +4175,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:I6"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4037,15 +4189,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4149,6 +4301,16 @@
       </c>
       <c r="I6" s="2" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4159,6 +4321,8 @@
     <hyperlink ref="I4" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=93995&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO&amp;utm_content=LINHA-500-W&amp;utm_campaign=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
     <hyperlink ref="I5" r:id="rId2" xr:uid="{6088F246-D8D4-4C88-AEF6-74E8524C11A9}"/>
     <hyperlink ref="I6" r:id="rId3" xr:uid="{499D34AD-1F01-480D-AA15-AE09510F11C6}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{B150C56A-B384-4D1B-8125-9603492F7313}"/>
+    <hyperlink ref="I9" r:id="rId5" xr:uid="{9EA4EB32-CDE8-47E7-93C3-B46D7EF8CB7B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4166,10 +4330,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:H6"/>
+  <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4179,14 +4343,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4278,6 +4442,54 @@
       </c>
       <c r="H6" s="2" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="3">
+        <v>310</v>
+      </c>
+      <c r="F7" s="3">
+        <v>310</v>
+      </c>
+      <c r="G7" s="3">
+        <v>310</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4288,8 +4500,14 @@
     <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
     <hyperlink ref="H5" r:id="rId2" xr:uid="{1F93E29E-8814-44C2-99CB-28E5B3C25E18}"/>
     <hyperlink ref="H6" r:id="rId3" xr:uid="{BE31BDB6-2B46-44A9-A0CA-3C2B4D3A4140}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{14FF124C-9073-4F6C-B73C-A4AE98FD1BAD}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{49C234C8-1E8F-4D44-8B96-80BD737EA8C1}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{26EF2822-CF90-4908-A443-06D48757434F}"/>
+    <hyperlink ref="H11" r:id="rId7" xr:uid="{48E75B2E-1217-41EB-87D9-A175316653A4}"/>
+    <hyperlink ref="H12" r:id="rId8" xr:uid="{F6D0B98F-ED50-44A6-956C-4DD2A669E647}"/>
+    <hyperlink ref="H13" r:id="rId9" xr:uid="{94420614-A1C5-4AB5-8946-E3AD20C71605}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId10"/>
 </worksheet>
 </file>
--- a/PC 3.0.xlsx
+++ b/PC 3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\Estudo\Programacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3544E385-1D50-4DFB-9D9F-65786B08DA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA4E9E9-4A1F-4C74-A1E7-69B60263C21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="857" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="857" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Placa de video" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="181">
   <si>
     <t>Marca</t>
   </si>
@@ -574,6 +574,12 @@
   </si>
   <si>
     <t>https://www.pichau.com.br/gabinete-gamer-t-dagger-cube-preto-lateral-vidro-t-tgc305b?gclid=CjwKCAjw97P5BRBQEiwAGflV6XS5ws6ZDSNu1wWP3U9Ks1hImczFrMNHSFSINdrqSphAX68UV4ANLRoC4e4QAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/35108/cooler-para-processador-coolermaster-hyper-tx3-evo-rr-tx3e-28pk-r1</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/79112/fonte-evga-600w-80-plus-white-100-w1-0600-k</t>
   </si>
 </sst>
 </file>
@@ -2310,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89D7B68-677F-4657-A79C-75FC01C0E5D7}">
   <dimension ref="A3:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,18 +2603,18 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>159</v>
+      <c r="A9" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B9" t="s">
         <v>80</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="str">
         <f>INDEX(Fonte!$B$4:$W$33,MATCH(Comprado!$C$9,Fonte!$B$4:$B$82,0),MATCH(Comprado!D3,Fonte!$B$3:$S$3,0))</f>
-        <v>Cooler Master</v>
+        <v>EVGA</v>
       </c>
       <c r="E9" t="str">
         <f>INDEX(Fonte!$B$4:$W$33,MATCH(Comprado!$C$9,Fonte!$B$4:$B$82,0),MATCH(Comprado!E3,Fonte!$B$3:$S$3,0))</f>
@@ -2616,27 +2622,33 @@
       </c>
       <c r="F9" s="3">
         <f>INDEX(Fonte!$B$4:$W$33,MATCH(Comprado!$C$9,Fonte!$B$4:$B$82,0),MATCH(Comprado!F3,Fonte!$B$3:$S$3,0))</f>
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="G9" s="3">
         <f>INDEX(Fonte!$B$4:$W$33,MATCH(Comprado!$C$9,Fonte!$B$4:$B$82,0),MATCH(Comprado!G3,Fonte!$B$3:$S$3,0))</f>
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="H9" s="3">
         <f>INDEX(Fonte!$B$4:$W$33,MATCH(Comprado!$C$9,Fonte!$B$4:$B$82,0),MATCH(Comprado!H3,Fonte!$B$3:$S$3,0))</f>
-        <v>440</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+        <v>380</v>
+      </c>
+      <c r="I9" s="3">
+        <v>381</v>
+      </c>
+      <c r="J9" s="3">
+        <v>12.28</v>
+      </c>
       <c r="K9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>393.28</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="1"/>
-        <v>-440</v>
-      </c>
-      <c r="M9" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -2902,8 +2914,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>159</v>
+      <c r="A16" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B16" t="s">
         <v>141</v>
@@ -2931,15 +2943,22 @@
         <f>INDEX(Cooler!$B$4:$U$36,MATCH(Comprado!$C$16,Cooler!$B$4:$B$131,0),MATCH(Comprado!H3,Cooler!$B$3:$U$3,0))</f>
         <v>160</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="I16" s="3">
+        <v>160</v>
+      </c>
+      <c r="J16" s="3">
+        <v>12.28</v>
+      </c>
       <c r="K16" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>172.28</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="3"/>
-        <v>-160</v>
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -2951,31 +2970,31 @@
       <c r="E17" s="8"/>
       <c r="F17" s="4">
         <f t="shared" ref="F17:L17" si="4">SUM(F4:F15)</f>
-        <v>5996</v>
+        <v>5936</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="4"/>
-        <v>6751</v>
+        <v>6691</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="4"/>
-        <v>6864</v>
+        <v>6804</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="4"/>
-        <v>3070</v>
+        <v>3451</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="4"/>
-        <v>53.77</v>
+        <v>66.05</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="4"/>
-        <v>3123.7700000000004</v>
+        <v>3517.0500000000006</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="4"/>
-        <v>-3681</v>
+        <v>-3240</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -4332,8 +4351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
